--- a/test/test_singlezone/steady_06/正解値.xlsx
+++ b/test/test_singlezone/steady_06/正解値.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049F7DA6-B885-470A-9583-0B8A154F838E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B338A74-D5C8-4E02-92E9-EF7B980FF5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="10584" yWindow="2136" windowWidth="11880" windowHeight="10152" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="正解値" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1079,6 +1087,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1170,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,6 +1235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,13 +1555,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -1801,24 +1826,24 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="6">
-        <f ca="1">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
-        <v>1.3426839128413139</v>
+        <f t="shared" ref="R23:R28" ca="1" si="3">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
+        <v>1.3426839126785708</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:S28" ca="1" si="3">($D$34*$K23+$D$35*$L23)/SUM($K23,$L23)+$Q23/SUM($K23,$L23)</f>
-        <v>2.7485852867298459</v>
+        <f t="shared" ref="S23:S26" ca="1" si="4">($D$34*$K23+$D$35*$L23)/SUM($K23,$L23)+$Q23/SUM($K23,$L23)</f>
+        <v>2.7485852870075478</v>
       </c>
       <c r="T23" s="1">
-        <f ca="1">($D$34-$R23)*$K23</f>
-        <v>9.8211394489478341</v>
+        <f t="shared" ref="T23:T28" ca="1" si="5">($D$34-$R23)*$K23</f>
+        <v>9.8211394507679319</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" ref="U23:U28" ca="1" si="4">($D$35-$R23)*$L23+($D$29*$D$30)/$P$27</f>
-        <v>52.95978213185699</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" ref="V23:V27" ca="1" si="5">SUM($T23,$U23)</f>
-        <v>62.780921580804822</v>
+        <f ca="1">($D$35-$R23)*$L23</f>
+        <v>2.9597821340409314</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" ref="V23:V27" ca="1" si="6">SUM($T23,$U23)</f>
+        <v>12.780921584808864</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -1868,24 +1893,24 @@
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="6">
-        <f ca="1">$I24+($S24-$I24)*SUM($N24,$J24)/SUM($N24,$J24,$M24)</f>
-        <v>1.3426839128413139</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126785708</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7485852867298459</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852870075478</v>
       </c>
       <c r="T24" s="1">
-        <f ca="1">($D$34-$R24)*$K24</f>
-        <v>9.8211394489478341</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211394507679319</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.95978213185699</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.780921580804822</v>
+        <f t="shared" ref="U24:U28" ca="1" si="7">($D$35-$R24)*$L24</f>
+        <v>2.9597821340409314</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584808864</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -1938,24 +1963,24 @@
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="6">
-        <f ca="1">$I25+($S25-$I25)*SUM($N25,$J25)/SUM($N25,$J25,$M25)</f>
-        <v>1.3426839128413139</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126785708</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7485852867298459</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852870075478</v>
       </c>
       <c r="T25" s="1">
-        <f ca="1">($D$34-$R25)*$K25</f>
-        <v>9.8211394489478341</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211394507679319</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.95978213185699</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.780921580804822</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.9597821340409314</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584808864</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -2008,24 +2033,24 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="6">
-        <f ca="1">$I26+($S26-$I26)*SUM($N26,$J26)/SUM($N26,$J26,$M26)</f>
-        <v>1.3426839128413139</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126785708</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7485852867298459</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852870075478</v>
       </c>
       <c r="T26" s="1">
-        <f ca="1">($D$34-$R26)*$K26</f>
-        <v>9.8211394489478341</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211394507679319</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>52.95978213185699</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.780921580804822</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.9597821340409314</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584808864</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -2078,24 +2103,24 @@
         <v>50</v>
       </c>
       <c r="R27" s="6">
-        <f ca="1">$I27+($S27-$I27)*SUM($N27,$J27)/SUM($N27,$J27,$M27)</f>
-        <v>4.2159435912817145</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2159435911114373</v>
       </c>
       <c r="S27" s="1">
         <f ca="1">($D$34*$K27+$D$35*$L27)/SUM($K27,$L27)+$Q27/SUM($K27,$L27)</f>
-        <v>8.2485852867298526</v>
+        <v>8.248585287007554</v>
       </c>
       <c r="T27" s="1">
-        <f ca="1">($D$34-$R27)*$K27</f>
-        <v>1.0833020480115148</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0833020498545272</v>
       </c>
       <c r="U27" s="1">
         <f ca="1">($D$35-$R27)*$L27+($D$29*$D$30)/$P$27</f>
-        <v>35.577077001516969</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>36.660379049528487</v>
+        <v>35.577077003746496</v>
+      </c>
+      <c r="V27" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>36.660379053601019</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -2144,24 +2169,24 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="6">
-        <f ca="1">$I28+($S28-$I28)*SUM($N28,$J28)/SUM($N28,$J28,$M28)</f>
-        <v>1.4048324801706011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4048324800003251</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" ref="S28" ca="1" si="6">($D$34*$K28+$D$35*$L28)/SUM($K28,$L28)+$Q28/SUM($K28,$L28)</f>
-        <v>2.7485852867298459</v>
+        <f t="shared" ref="S28" ca="1" si="8">($D$34*$K28+$D$35*$L28)/SUM($K28,$L28)+$Q28/SUM($K28,$L28)</f>
+        <v>2.7485852870075478</v>
       </c>
       <c r="T28" s="1">
-        <f ca="1">($D$34-$R28)*$K28</f>
-        <v>9.6321401461353506</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6321401479783582</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" ref="U28" ca="1" si="7">($D$35-$R28)*$L28+($D$29*$D$30)/$P$27</f>
-        <v>52.583794458948681</v>
-      </c>
-      <c r="V28" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5837944611781949</v>
+      </c>
+      <c r="V28" s="18">
         <f ca="1">SUM($T28,$U28)</f>
-        <v>62.21593460508403</v>
+        <v>12.215934609156553</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -2219,7 +2244,7 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">SUM($T$23:$T$28)</f>
-        <v>49.999999989938203</v>
+        <v>50.000000000904606</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
@@ -2249,7 +2274,7 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">SUM($D$31:$D$32)</f>
-        <v>49.999999989938203</v>
+        <v>50.000000000904606</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -2266,7 +2291,7 @@
       </c>
       <c r="D34" s="1">
         <f ca="1">$D$34+($D$28+$D$29*(1-$D$30)-$D$33)/$D$27</f>
-        <v>4.5721653836665697</v>
+        <v>4.5721653833033375</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2281,7 +2306,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">SUMPRODUCT($L$23:$L$28,$P$23:$P$28,$R$23:$R$28)/SUMPRODUCT($L$23:$L$28,$P$23:$P$28)</f>
-        <v>1.8319186204695954</v>
+        <v>1.8319186203043412</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_06/正解値.xlsx
+++ b/test/test_singlezone/steady_06/正解値.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B338A74-D5C8-4E02-92E9-EF7B980FF5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE4095-82D9-4B9C-A983-53742D1AFC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10584" yWindow="2136" windowWidth="11880" windowHeight="10152" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="5964" yWindow="2028" windowWidth="16848" windowHeight="10152" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="正解値" sheetId="1" r:id="rId1"/>
@@ -1087,8 +1087,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0000000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1181,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,6 +1219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,7 +1237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,14 +1559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
@@ -1570,7 +1574,8 @@
     <col min="15" max="15" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1700,7 +1705,7 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -1732,10 +1737,10 @@
       <c r="D22" s="1">
         <v>1005</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
         <v>23</v>
@@ -1761,7 +1766,7 @@
       <c r="P22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -1789,10 +1794,10 @@
       <c r="D23" s="1">
         <v>1.2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
       <c r="H23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1805,10 +1810,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K23" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L23" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ref="M23:M27" si="1">1/SUM($K23,$L23)</f>
@@ -1819,31 +1824,31 @@
       </c>
       <c r="O23" s="1">
         <f t="shared" ref="O23:O27" si="2">1/(1/$K23+$J23+$N23)</f>
-        <v>2.304766805120797</v>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="6">
+      <c r="R23" s="19">
         <f t="shared" ref="R23:R28" ca="1" si="3">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
-        <v>1.3426839126785708</v>
+        <v>1.3426839127368821</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ref="S23:S26" ca="1" si="4">($D$34*$K23+$D$35*$L23)/SUM($K23,$L23)+$Q23/SUM($K23,$L23)</f>
-        <v>2.7485852870075478</v>
+        <v>2.7485852869080469</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ref="T23:T28" ca="1" si="5">($D$34-$R23)*$K23</f>
-        <v>9.8211394507679319</v>
+        <v>9.8211813967139729</v>
       </c>
       <c r="U23" s="1">
         <f ca="1">($D$35-$R23)*$L23</f>
-        <v>2.9597821340409314</v>
-      </c>
-      <c r="V23" s="18">
+        <v>2.9597401866602358</v>
+      </c>
+      <c r="V23" s="12">
         <f t="shared" ref="V23:V27" ca="1" si="6">SUM($T23,$U23)</f>
-        <v>12.780921584808864</v>
+        <v>12.780921583374209</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -1856,10 +1861,10 @@
         <f>$D$22*$D$23</f>
         <v>1206</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="H24" s="4" t="s">
         <v>40</v>
       </c>
@@ -1872,10 +1877,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K24" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L24" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
@@ -1886,31 +1891,31 @@
       </c>
       <c r="O24" s="1">
         <f t="shared" si="2"/>
-        <v>2.304766805120797</v>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="6">
+      <c r="R24" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126785708</v>
+        <v>1.3426839127368821</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852870075478</v>
+        <v>2.7485852869080469</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211394507679319</v>
+        <v>9.8211813967139729</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ref="U24:U28" ca="1" si="7">($D$35-$R24)*$L24</f>
-        <v>2.9597821340409314</v>
-      </c>
-      <c r="V24" s="18">
+        <v>2.9597401866602358</v>
+      </c>
+      <c r="V24" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584808864</v>
+        <v>12.780921583374209</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -1942,10 +1947,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L25" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
@@ -1956,31 +1961,31 @@
       </c>
       <c r="O25" s="1">
         <f t="shared" si="2"/>
-        <v>2.304766805120797</v>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="6">
+      <c r="R25" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126785708</v>
+        <v>1.3426839127368821</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852870075478</v>
+        <v>2.7485852869080469</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211394507679319</v>
+        <v>9.8211813967139729</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9597821340409314</v>
-      </c>
-      <c r="V25" s="18">
+        <v>2.9597401866602358</v>
+      </c>
+      <c r="V25" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584808864</v>
+        <v>12.780921583374209</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -1994,7 +1999,7 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2012,10 +2017,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K26" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L26" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
@@ -2026,31 +2031,31 @@
       </c>
       <c r="O26" s="1">
         <f t="shared" si="2"/>
-        <v>2.304766805120797</v>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="6">
+      <c r="R26" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126785708</v>
+        <v>1.3426839127368821</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852870075478</v>
+        <v>2.7485852869080469</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211394507679319</v>
+        <v>9.8211813967139729</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9597821340409314</v>
-      </c>
-      <c r="V26" s="18">
+        <v>2.9597401866602358</v>
+      </c>
+      <c r="V26" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584808864</v>
+        <v>12.780921583374209</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -2061,13 +2066,13 @@
       </c>
       <c r="D27" s="1">
         <f>SUMPRODUCT($O$23:$O$28,$P$23:$P$28)+$D$24*$D$26</f>
-        <v>13.725301027105479</v>
+        <v>13.725592139031441</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I27" s="1">
@@ -2079,10 +2084,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K27" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L27" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
@@ -2093,7 +2098,7 @@
       </c>
       <c r="O27" s="1">
         <f t="shared" si="2"/>
-        <v>2.2531169033111458</v>
+        <v>2.2531639669610057</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -2102,25 +2107,25 @@
         <f>($D$29*$D$30)/$P27</f>
         <v>50</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2159435911114373</v>
+        <v>4.215943591172449</v>
       </c>
       <c r="S27" s="1">
         <f ca="1">($D$34*$K27+$D$35*$L27)/SUM($K27,$L27)+$Q27/SUM($K27,$L27)</f>
-        <v>8.248585287007554</v>
+        <v>8.2485852869080531</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0833020498545272</v>
+        <v>1.0830976447723155</v>
       </c>
       <c r="U27" s="1">
         <f ca="1">($D$35-$R27)*$L27+($D$29*$D$30)/$P$27</f>
-        <v>35.577077003746496</v>
-      </c>
-      <c r="V27" s="18">
+        <v>35.577281407369497</v>
+      </c>
+      <c r="V27" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>36.660379053601019</v>
+        <v>36.660379052141813</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -2136,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="1">
@@ -2148,10 +2153,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K28" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L28" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M28" s="1">
         <f>1/SUM($K28,$L28)</f>
@@ -2162,31 +2167,31 @@
       </c>
       <c r="O28" s="1">
         <f>1/(1/$K28+$J28+$N28)</f>
-        <v>2.2531169033111458</v>
+        <v>2.2531639669610057</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="6">
+      <c r="R28" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4048324800003251</v>
+        <v>1.4048324800613352</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" ref="S28" ca="1" si="8">($D$34*$K28+$D$35*$L28)/SUM($K28,$L28)+$Q28/SUM($K28,$L28)</f>
-        <v>2.7485852870075478</v>
+        <v>2.7485852869080469</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6321401479783582</v>
+        <v>9.6321767653470154</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5837944611781949</v>
-      </c>
-      <c r="V28" s="18">
+        <v>2.5837578423503476</v>
+      </c>
+      <c r="V28" s="12">
         <f ca="1">SUM($T28,$U28)</f>
-        <v>12.215934609156553</v>
+        <v>12.215934607697363</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -2198,25 +2203,25 @@
       <c r="D29" s="1">
         <v>100</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
@@ -2227,7 +2232,7 @@
       <c r="D30" s="1">
         <v>0.5</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
@@ -2244,9 +2249,9 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">SUM($T$23:$T$28)</f>
-        <v>50.000000000904606</v>
-      </c>
-      <c r="E31" s="7" t="s">
+        <v>49.99999999697522</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="1"/>
@@ -2261,7 +2266,7 @@
         <f ca="1">$D$24*$D$26*($D$34-$D$25)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="1"/>
@@ -2274,7 +2279,7 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">SUM($D$31:$D$32)</f>
-        <v>50.000000000904606</v>
+        <v>49.99999999697522</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -2289,9 +2294,9 @@
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="18">
         <f ca="1">$D$34+($D$28+$D$29*(1-$D$30)-$D$33)/$D$27</f>
-        <v>4.5721653833033375</v>
+        <v>4.5720881282131893</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2306,7 +2311,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">SUMPRODUCT($L$23:$L$28,$P$23:$P$28,$R$23:$R$28)/SUMPRODUCT($L$23:$L$28,$P$23:$P$28)</f>
-        <v>1.8319186203043412</v>
+        <v>1.8319186203635522</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_06/正解値.xlsx
+++ b/test/test_singlezone/steady_06/正解値.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE4095-82D9-4B9C-A983-53742D1AFC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DDB0C-F599-40A2-8A3E-FB0BCD6022BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="2028" windowWidth="16848" windowHeight="10152" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="正解値" sheetId="1" r:id="rId1"/>
+    <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
+    <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-8"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="181029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -398,22 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対流熱伝達率、放射熱伝達率はそれぞれ、Pythonプログラムでの計算結果を使用する。</t>
-    <rPh sb="7" eb="9">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収束計算の過程において、室空気からの対流熱損失が、内部発熱の設定と差がある場合、（内部発熱ー対流熱損失）/Q値を室温に加算。その際のQ値は室内側表面熱伝達率は対流のみを考慮。</t>
     <rPh sb="0" eb="4">
       <t>シュウソクケイサン</t>
@@ -899,31 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相当外気温度が屋根と南壁10℃、他は0℃。</t>
-    <rPh sb="0" eb="4">
-      <t>ソウトウガイキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヤネ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>透過日射</t>
     <rPh sb="0" eb="2">
       <t>トウカ</t>
@@ -1079,6 +1034,181 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永田の方法</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積比</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>微小球から面を見た形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射率</t>
+    <rPh sb="0" eb="3">
+      <t>ホウシャリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射熱伝達率[W/(m2･K)]</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f_bar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>平均温度</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放射熱伝達率は永田先生の方法、対流熱伝達率は室内側表面熱伝達抵抗(固定値）と放射熱伝達率より求める。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相当外気温度0℃、透過日射100W。</t>
+    <rPh sb="0" eb="4">
+      <t>ソウトウガイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1087,11 +1217,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,13 +1239,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1177,12 +1328,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,6 +1379,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,15 +1400,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{FDFCF91B-4268-44BE-B85B-3219AF36E52B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,6 +1440,178 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526572" cy="558102"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AB42E6-2465-4BF1-B11E-26C47E726AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341620" y="1600200"/>
+          <a:ext cx="1526572" cy="558102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>D9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>となるように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>H2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を収束計算で求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="熱伝達率"/>
+      <sheetName val="正解値"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>壁</v>
+          </cell>
+          <cell r="K20">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>壁</v>
+          </cell>
+          <cell r="K21">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22" t="str">
+            <v>壁</v>
+          </cell>
+          <cell r="K22">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23" t="str">
+            <v>壁</v>
+          </cell>
+          <cell r="K23">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24" t="str">
+            <v>床</v>
+          </cell>
+          <cell r="K24">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25" t="str">
+            <v>屋根</v>
+          </cell>
+          <cell r="K25">
+            <v>0.9</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,12 +1910,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057D0BD2-17D5-49FF-838C-CD87363E756B}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="22"/>
+    <col min="6" max="6" width="12.8984375" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1.199999999980782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="str">
+        <f>[1]正解値!$H20</f>
+        <v>壁</v>
+      </c>
+      <c r="B3" s="25">
+        <f>正解値!$J23</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="27">
+        <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E3" s="21">
+        <f>[1]正解値!$K20</f>
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="str">
+        <f>[1]正解値!$H21</f>
+        <v>壁</v>
+      </c>
+      <c r="B4" s="25">
+        <f>正解値!$J24</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E4" s="21">
+        <f>[1]正解値!$K21</f>
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="str">
+        <f>[1]正解値!$H22</f>
+        <v>壁</v>
+      </c>
+      <c r="B5" s="25">
+        <f>正解値!$J25</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E5" s="21">
+        <f>[1]正解値!$K22</f>
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="21" t="str">
+        <f>[1]正解値!$H23</f>
+        <v>壁</v>
+      </c>
+      <c r="B6" s="25">
+        <f>正解値!$J26</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E6" s="21">
+        <f>[1]正解値!$K23</f>
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="str">
+        <f>[1]正解値!$H24</f>
+        <v>床</v>
+      </c>
+      <c r="B7" s="25">
+        <f>正解値!$J27</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E7" s="21">
+        <f>[1]正解値!$K24</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="str">
+        <f>[1]正解値!$H25</f>
+        <v>屋根</v>
+      </c>
+      <c r="B8" s="25">
+        <f>正解値!$J28</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E8" s="21">
+        <f>[1]正解値!$K25</f>
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="25">
+        <f>SUM(B3:B8)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="28">
+        <f>SUM(D3:D8)</f>
+        <v>1.0000000000200189</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1569,108 +2158,110 @@
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="12" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1685,60 +2276,63 @@
         <v>29</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1">
         <v>1005</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6"/>
       <c r="H22" s="1"/>
@@ -1746,37 +2340,37 @@
         <v>23</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -1784,142 +2378,155 @@
       <c r="V22" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="W22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <v>1.2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="6"/>
       <c r="H23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ref="I23:I28" si="0">$D$25</f>
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f>1/4.65-SUM($M23,$N23)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="1">
+        <f>熱伝達率!$F3</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M23" s="1">
+        <f ca="1">1/$N23-$L23</f>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N23" s="1">
+        <f ca="1">1/SUM($M23,$L23)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P23" s="1">
+        <f ca="1">1/4.65-SUM($N23,$O23)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="K23" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L23" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23:M27" si="1">1/SUM($K23,$L23)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" ref="O23:O27" si="2">1/(1/$K23+$J23+$N23)</f>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="19">
-        <f t="shared" ref="R23:R28" ca="1" si="3">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
-        <v>1.3426839127368821</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" ref="S23:S26" ca="1" si="4">($D$34*$K23+$D$35*$L23)/SUM($K23,$L23)+$Q23/SUM($K23,$L23)</f>
-        <v>2.7485852869080469</v>
+      <c r="Q23" s="1">
+        <f ca="1">1/(1/$M23+$P23+$O23)</f>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="15">
+        <f ca="1">$I23+($T23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
+        <v>1.3426839126919428</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" ref="T23:T28" ca="1" si="5">($D$34-$R23)*$K23</f>
-        <v>9.8211813967139729</v>
+        <f ca="1">($D$34*$M23+$D$35*$L23)/SUM($M23,$L23)+$R23/SUM($M23,$L23)</f>
+        <v>2.7485852869847287</v>
       </c>
       <c r="U23" s="1">
-        <f ca="1">($D$35-$R23)*$L23</f>
-        <v>2.9597401866602358</v>
-      </c>
-      <c r="V23" s="12">
-        <f t="shared" ref="V23:V27" ca="1" si="6">SUM($T23,$U23)</f>
-        <v>12.780921583374209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+        <f ca="1">($D$34-$S23)*$M23</f>
+        <v>9.8211813998560373</v>
+      </c>
+      <c r="V23" s="1">
+        <f ca="1">($D$35-$S23)*$L23</f>
+        <v>2.9597401846238167</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" ref="W23:W27" ca="1" si="1">SUM($U23,$V23)</f>
+        <v>12.780921584479854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1">
         <f>$D$22*$D$23</f>
         <v>1206</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6"/>
       <c r="H24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <f>1/4.65-SUM($M24,$N24)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L24" s="1">
+        <f>熱伝達率!$F4</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:M28" ca="1" si="2">1/$N24-$L24</f>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N24" s="1">
+        <f ca="1">1/SUM($M24,$L24)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P24" s="1">
+        <f ca="1">1/4.65-SUM($N24,$O24)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="K24" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L24" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3426839127368821</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869080469</v>
+      <c r="Q24" s="1">
+        <f ca="1">1/(1/$M24+$P24+$O24)</f>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="15">
+        <f ca="1">$I24+($T24-$I24)*SUM($O24,$P24)/SUM($O24,$P24,$N24)</f>
+        <v>1.3426839126919428</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8211813967139729</v>
+        <f ca="1">($D$34*$M24+$D$35*$L24)/SUM($M24,$L24)+$R24/SUM($M24,$L24)</f>
+        <v>2.7485852869847287</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24:U28" ca="1" si="7">($D$35-$R24)*$L24</f>
-        <v>2.9597401866602358</v>
-      </c>
-      <c r="V24" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.780921583374209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+        <f ca="1">($D$34-$S24)*$M24</f>
+        <v>9.8211813998560373</v>
+      </c>
+      <c r="V24" s="1">
+        <f ca="1">($D$35-$S24)*$L24</f>
+        <v>2.9597401846238167</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.780921584479854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1936,137 +2543,147 @@
       </c>
       <c r="F25" s="1"/>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f>1/4.65-SUM($M25,$N25)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L25" s="1">
+        <f>熱伝達率!$F5</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N25" s="1">
+        <f ca="1">1/SUM($M25,$L25)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P25" s="1">
+        <f ca="1">1/4.65-SUM($N25,$O25)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="K25" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3426839127368821</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869080469</v>
+      <c r="Q25" s="1">
+        <f ca="1">1/(1/$M25+$P25+$O25)</f>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="15">
+        <f ca="1">$I25+($T25-$I25)*SUM($O25,$P25)/SUM($O25,$P25,$N25)</f>
+        <v>1.3426839126919428</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8211813967139729</v>
+        <f ca="1">($D$34*$M25+$D$35*$L25)/SUM($M25,$L25)+$R25/SUM($M25,$L25)</f>
+        <v>2.7485852869847287</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.9597401866602358</v>
-      </c>
-      <c r="V25" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.780921583374209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14" t="s">
+        <f ca="1">($D$34-$S25)*$M25</f>
+        <v>9.8211813998560373</v>
+      </c>
+      <c r="V25" s="1">
+        <f ca="1">($D$35-$S25)*$L25</f>
+        <v>2.9597401846238167</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.780921584479854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f>1/4.65-SUM($M26,$N26)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="1">
+        <f>熱伝達率!$F6</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N26" s="1">
+        <f ca="1">1/SUM($M26,$L26)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P26" s="1">
+        <f ca="1">1/4.65-SUM($N26,$O26)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="K26" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L26" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3426839127368821</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869080469</v>
+      <c r="Q26" s="1">
+        <f ca="1">1/(1/$M26+$P26+$O26)</f>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="15">
+        <f ca="1">$I26+($T26-$I26)*SUM($O26,$P26)/SUM($O26,$P26,$N26)</f>
+        <v>1.3426839126919428</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8211813967139729</v>
+        <f ca="1">($D$34*$M26+$D$35*$L26)/SUM($M26,$L26)+$R26/SUM($M26,$L26)</f>
+        <v>2.7485852869847287</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.9597401866602358</v>
-      </c>
-      <c r="V26" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.780921583374209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+        <f ca="1">($D$34-$S26)*$M26</f>
+        <v>9.8211813998560373</v>
+      </c>
+      <c r="V26" s="1">
+        <f ca="1">($D$35-$S26)*$L26</f>
+        <v>2.9597401846238167</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.780921584479854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMPRODUCT($O$23:$O$28,$P$23:$P$28)+$D$24*$D$26</f>
-        <v>13.725592139031441</v>
+        <f ca="1">SUMPRODUCT($Q$23:$Q$28,$J$23:$J$28)+$D$24*$D$26</f>
+        <v>13.725592157349325</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -2080,57 +2697,62 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="1">
+        <f>熱伝達率!$F7</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N27" s="1">
+        <f ca="1">1/SUM($M27,$L27)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P27" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K27" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L27" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2531639669610057</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
       <c r="Q27" s="1">
-        <f>($D$29*$D$30)/$P27</f>
+        <f ca="1">1/(1/$M27+$P27+$O27)</f>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="R27" s="1">
+        <f>($D$29*$D$30)/$J27</f>
         <v>50</v>
       </c>
-      <c r="R27" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.215943591172449</v>
-      </c>
-      <c r="S27" s="1">
-        <f ca="1">($D$34*$K27+$D$35*$L27)/SUM($K27,$L27)+$Q27/SUM($K27,$L27)</f>
-        <v>8.2485852869080531</v>
+      <c r="S27" s="15">
+        <f ca="1">$I27+($T27-$I27)*SUM($O27,$P27)/SUM($O27,$P27,$N27)</f>
+        <v>4.2159435911254288</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0830976447723155</v>
+        <f ca="1">($D$34*$M27+$D$35*$L27)/SUM($M27,$L27)+$R27/SUM($M27,$L27)</f>
+        <v>8.2485852869847349</v>
       </c>
       <c r="U27" s="1">
-        <f ca="1">($D$35-$R27)*$L27+($D$29*$D$30)/$P$27</f>
-        <v>35.577281407369497</v>
-      </c>
-      <c r="V27" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>36.660379052141813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+        <f ca="1">($D$34-$S27)*$M27</f>
+        <v>1.0830976324192414</v>
+      </c>
+      <c r="V27" s="1">
+        <f ca="1">($D$35-$S27)*$L27+($D$29*$D$30)/$J$27</f>
+        <v>35.577281420847136</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.660379053266375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2149,56 +2771,61 @@
         <v>0</v>
       </c>
       <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L28" s="1">
+        <f>熱伝達率!$F8</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="N28" s="1">
+        <f ca="1">1/SUM($M28,$L28)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P28" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K28" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L28" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M28" s="1">
-        <f>1/SUM($K28,$L28)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O28" s="1">
-        <f>1/(1/$K28+$J28+$N28)</f>
-        <v>2.2531639669610057</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4048324800613352</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" ref="S28" ca="1" si="8">($D$34*$K28+$D$35*$L28)/SUM($K28,$L28)+$Q28/SUM($K28,$L28)</f>
-        <v>2.7485852869080469</v>
+      <c r="Q28" s="1">
+        <f ca="1">1/(1/$M28+$P28+$O28)</f>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="15">
+        <f ca="1">$I28+($T28-$I28)*SUM($O28,$P28)/SUM($O28,$P28,$N28)</f>
+        <v>1.4048324800143162</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.6321767653470154</v>
+        <f ca="1">($D$34*$M28+$D$35*$L28)/SUM($M28,$L28)+$R28/SUM($M28,$L28)</f>
+        <v>2.7485852869847287</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5837578423503476</v>
-      </c>
-      <c r="V28" s="12">
-        <f ca="1">SUM($T28,$U28)</f>
-        <v>12.215934607697363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+        <f ca="1">($D$34-$S28)*$M28</f>
+        <v>9.6321767681601074</v>
+      </c>
+      <c r="V28" s="1">
+        <f ca="1">($D$35-$S28)*$L28</f>
+        <v>2.5837578406618067</v>
+      </c>
+      <c r="W28" s="12">
+        <f ca="1">SUM($U28,$V28)</f>
+        <v>12.215934608821915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
         <v>100</v>
@@ -2217,17 +2844,18 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -2237,30 +2865,30 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>59</v>
+      <c r="B31" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f ca="1">SUM($T$23:$T$28)</f>
-        <v>49.99999999697522</v>
+        <f ca="1">SUM($U$23:$U$28)</f>
+        <v>50.000000000003496</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">$D$24*$D$26*($D$34-$D$25)</f>
@@ -2272,14 +2900,14 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">SUM($D$31:$D$32)</f>
-        <v>49.99999999697522</v>
+        <v>50.000000000003496</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -2287,16 +2915,16 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="14">
         <f ca="1">$D$34+($D$28+$D$29*(1-$D$30)-$D$33)/$D$27</f>
-        <v>4.5720881282131893</v>
+        <v>4.5720881232517927</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2304,14 +2932,14 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1">
-        <f ca="1">SUMPRODUCT($L$23:$L$28,$P$23:$P$28,$R$23:$R$28)/SUMPRODUCT($L$23:$L$28,$P$23:$P$28)</f>
-        <v>1.8319186203635522</v>
+        <f ca="1">SUMPRODUCT($L$23:$L$28,$J$23:$J$28,$S$23:$S$28)/SUMPRODUCT($L$23:$L$28,$J$23:$J$28)</f>
+        <v>1.831918620317919</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
